--- a/public/files/sample_warehouses.xlsx
+++ b/public/files/sample_warehouses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa5\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C789934-5BE0-4795-B085-82F28F9F265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C4D5E-7550-4FCF-9EA9-5277B4B176F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>code</t>
   </si>
@@ -42,9 +42,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>store_code</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>AEON MALL BSD CITY</t>
-  </si>
-  <si>
-    <t>A01</t>
   </si>
   <si>
     <t>JL. BSD RAYA UTAMA, BOULEVARD BARAT</t>
@@ -373,71 +367,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048568"/>
+  <dimension ref="A1:E1048568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="1048250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
